--- a/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>CNM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E7" s="2">
         <v>44318</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44136</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44045</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43954</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43863</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43772</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1297600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1055100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>831800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1012500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>955900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>842100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>733200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>952100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>924000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>972400</v>
+      </c>
+      <c r="E9" s="3">
         <v>798300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>627600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>768100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>725300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>642900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>552400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>726100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>325200</v>
+      </c>
+      <c r="E10" s="3">
         <v>256800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>204200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>244400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>230600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>199200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>180800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>226000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>50400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E15" s="3">
         <v>33800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>32800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1248200</v>
+      </c>
+      <c r="E17" s="3">
         <v>986000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>799200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>947800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>896400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>813400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>712000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>898500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>870900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E18" s="3">
         <v>69100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>64700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>59500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>53600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,124 +1072,139 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E21" s="3">
         <v>106800</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>65800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E22" s="3">
         <v>35500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>35300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E23" s="3">
         <v>33600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>800</v>
+        <v>3100</v>
       </c>
       <c r="E24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>32800</v>
+        <v>9500</v>
       </c>
       <c r="E26" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>32800</v>
+        <v>26500</v>
       </c>
       <c r="E27" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,37 +1456,43 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>32800</v>
+        <v>26500</v>
       </c>
       <c r="E33" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>32800</v>
+        <v>26500</v>
       </c>
       <c r="E35" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E38" s="2">
         <v>44318</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44136</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44045</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43954</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43863</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43772</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,17 +1619,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E41" s="3">
         <v>320200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,17 +1681,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>832900</v>
+      </c>
+      <c r="E43" s="3">
         <v>716100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1620,17 +1713,20 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>593200</v>
+      </c>
+      <c r="E44" s="3">
         <v>509200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1649,17 +1745,20 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E45" s="3">
         <v>17300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1678,17 +1777,20 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1508300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1562800</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,17 +1841,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>226400</v>
+      </c>
+      <c r="E48" s="3">
         <v>227400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1765,17 +1873,20 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2314200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2013000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>4400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,17 +2033,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4053300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3803200</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,17 +2095,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>564900</v>
+      </c>
+      <c r="E57" s="3">
         <v>532500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
@@ -1994,17 +2125,20 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2023,17 +2157,20 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>164900</v>
+      </c>
+      <c r="E59" s="3">
         <v>148600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2052,17 +2189,20 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>744800</v>
+      </c>
+      <c r="E60" s="3">
         <v>694100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2081,17 +2221,20 @@
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1462000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2251500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2110,17 +2253,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>298500</v>
+      </c>
+      <c r="E62" s="3">
         <v>158500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,17 +2381,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2981400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3104100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-20000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,17 +2683,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1071900</v>
+      </c>
+      <c r="E76" s="3">
         <v>699100</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E80" s="2">
         <v>44318</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44136</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44045</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43954</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43863</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43772</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>32800</v>
+        <v>26500</v>
       </c>
       <c r="E81" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,17 +2832,18 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E83" s="3">
         <v>37700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,17 +3022,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42500</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,17 +3070,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,17 +3164,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14300</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,17 +3402,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-253600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-60700</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>8</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>CNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44409</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44318</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44136</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44045</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43954</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43863</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43772</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1404800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1297600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1055100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>831800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1012500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>955900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>842100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>733200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>952100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>924000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1034200</v>
+      </c>
+      <c r="E9" s="3">
         <v>972400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>798300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>627600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>768100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>725300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>642900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>552400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>726100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>370600</v>
+      </c>
+      <c r="E10" s="3">
         <v>325200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>256800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>204200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>244400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>230600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>199200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>180800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>226000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,19 +907,22 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>50400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -916,46 +936,52 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E15" s="3">
         <v>33600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>33800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>32800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1257600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1248200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>986000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>799200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>947800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>896400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>813400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>712000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>898500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>870900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E18" s="3">
         <v>49400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>69100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>32600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>64700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>59500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,136 +1109,151 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>184300</v>
+      </c>
+      <c r="E21" s="3">
         <v>86900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>106800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>65800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E22" s="3">
         <v>36800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>35500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E23" s="3">
         <v>12600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E26" s="3">
         <v>9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E27" s="3">
         <v>26500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>26200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,40 +1529,46 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E33" s="3">
         <v>26500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>26200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E35" s="3">
         <v>26500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>26200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44409</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44318</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44136</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44045</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43954</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43863</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43772</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,20 +1706,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>66600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>320200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,20 +1774,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>946100</v>
+      </c>
+      <c r="E43" s="3">
         <v>832900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>716100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1716,20 +1809,23 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>721200</v>
+      </c>
+      <c r="E44" s="3">
         <v>593200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>509200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1748,20 +1844,23 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E45" s="3">
         <v>15600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1780,20 +1879,23 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1696900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1508300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1562800</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,20 +1949,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>249400</v>
+      </c>
+      <c r="E48" s="3">
         <v>226400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>227400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1876,20 +1984,23 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2414700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2314200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2013000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,17 +2089,20 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E52" s="3">
         <v>4400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1998,14 +2118,17 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,20 +2159,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4380800</v>
+      </c>
+      <c r="E54" s="3">
         <v>4053300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3803200</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,20 +2226,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>613300</v>
+      </c>
+      <c r="E57" s="3">
         <v>564900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>532500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2137,11 +2271,11 @@
         <v>15000</v>
       </c>
       <c r="E58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F58" s="3">
         <v>13000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2160,20 +2294,23 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>214300</v>
+      </c>
+      <c r="E59" s="3">
         <v>164900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>148600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2192,20 +2329,23 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>842600</v>
+      </c>
+      <c r="E60" s="3">
         <v>744800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>694100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2224,20 +2364,23 @@
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1459000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1462000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2251500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2256,20 +2399,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>320500</v>
+      </c>
+      <c r="E62" s="3">
         <v>298500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>158500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,20 +2539,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3157500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2981400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3104100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,17 +2729,20 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2584,14 +2758,17 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,20 +2869,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1223300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1071900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>699100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44409</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44318</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44136</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44045</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43954</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43863</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43772</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E81" s="3">
         <v>26500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>26200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,20 +3031,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E83" s="3">
         <v>37500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37700</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,20 +3239,23 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-56600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-42500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,20 +3291,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,20 +3394,23 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,20 +3584,23 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-188000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14300</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,20 +3654,23 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-253600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-60700</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>8</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>CNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44409</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44318</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44136</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44045</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43954</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43863</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43772</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1246500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1404800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1297600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1055100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>831800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1012500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>955900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>842100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>733200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>952100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>924000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>919100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1034200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>972400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>798300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>627600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>768100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>725300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>642900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>552400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>726100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>327400</v>
+      </c>
+      <c r="E10" s="3">
         <v>370600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>325200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>256800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>204200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>244400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>230600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>199200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>180800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>226000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,13 +939,13 @@
         <v>300</v>
       </c>
       <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
         <v>50400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -939,49 +959,55 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E15" s="3">
         <v>35200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>33600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>33800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>32800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1138200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1257600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1248200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>986000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>799200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>947800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>896400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>813400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>712000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>898500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>870900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E18" s="3">
         <v>147200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>49400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>69100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>64700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>59500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,148 +1146,163 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E21" s="3">
         <v>184300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>86900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>106800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>65800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E22" s="3">
         <v>13000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>36800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>35000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E23" s="3">
         <v>134200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E24" s="3">
         <v>24900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E26" s="3">
         <v>109300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E27" s="3">
         <v>64400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,43 +1602,49 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E33" s="3">
         <v>64400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E35" s="3">
         <v>64400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44409</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44318</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44136</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44045</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43954</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43863</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43772</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,23 +1793,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>320200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,23 +1867,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>884000</v>
+      </c>
+      <c r="E43" s="3">
         <v>946100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>832900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>716100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1812,23 +1905,26 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>856000</v>
+      </c>
+      <c r="E44" s="3">
         <v>721200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>593200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>509200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1847,23 +1943,26 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E45" s="3">
         <v>24700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1882,23 +1981,26 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1767000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1696900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1508300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1562800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,23 +2057,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E48" s="3">
         <v>249400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>226400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>227400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1987,23 +2095,26 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2386000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2414700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2314200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2013000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,20 +2209,23 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E52" s="3">
         <v>19800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2121,14 +2241,17 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,23 +2285,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4434000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4380800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4053300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3803200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,23 +2357,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>608000</v>
+      </c>
+      <c r="E57" s="3">
         <v>613300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>564900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>532500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2274,11 +2408,11 @@
         <v>15000</v>
       </c>
       <c r="F58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G58" s="3">
         <v>13000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2297,23 +2431,26 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E59" s="3">
         <v>214300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>164900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>148600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2332,23 +2469,26 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>839000</v>
+      </c>
+      <c r="E60" s="3">
         <v>842600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>744800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>694100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2367,23 +2507,26 @@
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1456000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1459000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1462000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2251500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2402,23 +2545,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E62" s="3">
         <v>320500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>298500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>158500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,23 +2697,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3109000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3157500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2981400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3104100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,20 +2903,23 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E72" s="3">
         <v>44400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2761,14 +2935,17 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,23 +3055,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1325000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1223300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1071900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>699100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44409</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44318</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44136</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44045</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43954</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43863</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43772</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E81" s="3">
         <v>64400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,23 +3230,24 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E83" s="3">
         <v>37100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,23 +3456,26 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E89" s="3">
         <v>32900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-56600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-42500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,23 +3512,24 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,23 +3624,26 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-176000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,23 +3830,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E100" s="3">
         <v>81400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-188000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,23 +3906,26 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-253600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-60700</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>8</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>CNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E7" s="2">
         <v>44591</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44409</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44318</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44136</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44045</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43954</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43863</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43772</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1598000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1246500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1404800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1297600</v>
       </c>
-      <c r="G8" s="3">
-        <v>1055100</v>
-      </c>
       <c r="H8" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="I8" s="3">
         <v>831800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1012500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>955900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>842100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>733200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>952100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>924000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="E9" s="3">
         <v>919100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1034200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>972400</v>
       </c>
-      <c r="G9" s="3">
-        <v>798300</v>
-      </c>
       <c r="H9" s="3">
+        <v>798000</v>
+      </c>
+      <c r="I9" s="3">
         <v>627600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>768100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>725300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>642900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>552400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>726100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E10" s="3">
         <v>327400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>370600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>325200</v>
       </c>
-      <c r="G10" s="3">
-        <v>256800</v>
-      </c>
       <c r="H10" s="3">
+        <v>257000</v>
+      </c>
+      <c r="I10" s="3">
         <v>204200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>244400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>230600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>199200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>180800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>226000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,25 +947,28 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>300</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
+        <v>300</v>
+      </c>
+      <c r="G14" s="3">
         <v>50400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>2000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -962,52 +982,58 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E15" s="3">
         <v>35400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>33600</v>
       </c>
-      <c r="G15" s="3">
-        <v>33800</v>
-      </c>
       <c r="H15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="I15" s="3">
         <v>34600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>32800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>33100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1418000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1138200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1257600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1248200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>986000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>799200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>947800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>896400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>813400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>712000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>898500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>870900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E18" s="3">
         <v>108300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>147200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>49400</v>
       </c>
-      <c r="G18" s="3">
-        <v>69100</v>
-      </c>
       <c r="H18" s="3">
+        <v>69000</v>
+      </c>
+      <c r="I18" s="3">
         <v>32600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>64700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>59500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,25 +1183,28 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E21" s="3">
         <v>146000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>184300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>86900</v>
       </c>
-      <c r="G21" s="3">
-        <v>106800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
+      <c r="H21" s="3">
+        <v>106700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1175,134 +1212,146 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>65800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E22" s="3">
         <v>12700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>36800</v>
       </c>
-      <c r="G22" s="3">
-        <v>35500</v>
-      </c>
       <c r="H22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I22" s="3">
         <v>35300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>35600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>35000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E23" s="3">
         <v>95600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>134200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12600</v>
       </c>
-      <c r="G23" s="3">
-        <v>33600</v>
-      </c>
       <c r="H23" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
-        <v>6200</v>
-      </c>
       <c r="H24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E26" s="3">
         <v>78800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>109300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9500</v>
       </c>
-      <c r="G26" s="3">
-        <v>27400</v>
-      </c>
       <c r="H26" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E27" s="3">
         <v>47700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>64400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26500</v>
       </c>
-      <c r="G27" s="3">
-        <v>27400</v>
-      </c>
       <c r="H27" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,46 +1675,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E33" s="3">
         <v>47700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>64400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26500</v>
       </c>
-      <c r="G33" s="3">
-        <v>27400</v>
-      </c>
       <c r="H33" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E35" s="3">
         <v>47700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>64400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26500</v>
       </c>
-      <c r="G35" s="3">
-        <v>27400</v>
-      </c>
       <c r="H35" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E38" s="2">
         <v>44591</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44409</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44318</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44136</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44045</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43954</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43863</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43772</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1880,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1803,17 +1890,17 @@
         <v>1000</v>
       </c>
       <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>320200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1832,8 +1919,11 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,26 +1960,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1113000</v>
+      </c>
+      <c r="E43" s="3">
         <v>884000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>946100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>832900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>716100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1908,26 +2001,29 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1063000</v>
+      </c>
+      <c r="E44" s="3">
         <v>856000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>721200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>593200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>509200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1946,26 +2042,29 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E45" s="3">
         <v>26000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1984,26 +2083,29 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2202000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1767000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1696900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1508300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1562800</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,26 +2165,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E48" s="3">
         <v>246000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>249400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>226400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>227400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2098,26 +2206,29 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2361000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2386000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2414700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2314200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2013000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,23 +2329,26 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E52" s="3">
         <v>35000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2244,14 +2364,17 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,26 +2411,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4894000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4434000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4380800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4053300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3803200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,26 +2488,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>859000</v>
+      </c>
+      <c r="E57" s="3">
         <v>608000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>613300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>564900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>532500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2411,11 +2545,11 @@
         <v>15000</v>
       </c>
       <c r="G58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H58" s="3">
         <v>13000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2434,26 +2568,29 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E59" s="3">
         <v>216000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>214300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>164900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>148600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2472,26 +2609,29 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="E60" s="3">
         <v>839000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>842600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>744800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>694100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2510,26 +2650,29 @@
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1510000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1456000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1459000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1462000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2251500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2548,26 +2691,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E62" s="3">
         <v>308000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>320500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>298500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>158500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,26 +2855,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3109000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3157500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2981400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3104100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,23 +3077,26 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E72" s="3">
         <v>92000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>44400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2938,14 +3112,17 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,26 +3241,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1436000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1325000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1223300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1071900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>699100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E80" s="2">
         <v>44591</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44409</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44318</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44136</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44045</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43954</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43863</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43772</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E81" s="3">
         <v>47700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>64400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26500</v>
       </c>
-      <c r="G81" s="3">
-        <v>27400</v>
-      </c>
       <c r="H81" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,26 +3429,27 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E83" s="3">
         <v>37700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,26 +3673,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E89" s="3">
         <v>35200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-56600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,26 +3733,27 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,26 +3854,29 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-176000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,26 +4076,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>81400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-188000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3871,8 +4117,11 @@
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,26 +4158,29 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-61700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-253600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-60700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>8</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>CNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,207 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44682</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44591</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44409</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44318</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44136</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44045</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43954</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43863</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43772</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1598000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1246500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1404800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1297600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1055000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>831800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1012500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>955900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>842100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>733200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>952100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>924000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1360000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1177000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>919100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1034200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>972400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>798000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>627600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>768100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>725300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>642900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>552400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>726100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E10" s="3">
         <v>421000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>327400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>370600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>325200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>257000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>204200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>244400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>230600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>199200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>180800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>226000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,29 +967,32 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>300</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
       </c>
       <c r="G14" s="3">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
         <v>50400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
@@ -985,55 +1005,61 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E15" s="3">
         <v>35000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>33600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>32800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1624000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1418000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1138200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1257600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1248200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>986000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>799200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>947800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>896400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>813400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>712000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>898500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>870900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E18" s="3">
         <v>180000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>108300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>147200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>49400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>69000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>64700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>59500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>28700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1178,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,172 +1220,187 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E21" s="3">
         <v>216000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>146000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>184300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>86900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>106700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>65800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E22" s="3">
         <v>13000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>36800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>36000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>35300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>35600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E23" s="3">
         <v>167000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>95600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>134200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>33000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E24" s="3">
         <v>30000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E26" s="3">
         <v>137000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>78800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>109300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E27" s="3">
         <v>86000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>47700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>64400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>26500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1704,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1678,49 +1748,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E33" s="3">
         <v>86000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>64400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>26500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E35" s="3">
         <v>86000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>64400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>26500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44682</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44591</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44409</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44318</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44136</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44045</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43954</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43863</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43772</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,29 +1967,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>1000</v>
       </c>
       <c r="F41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>320200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1922,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,29 +2053,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1264000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1113000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>884000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>946100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>832900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>716100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2004,29 +2097,32 @@
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1063000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>856000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>721200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>593200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>509200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2045,29 +2141,32 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E45" s="3">
         <v>25000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2086,29 +2185,32 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2461000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2202000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1767000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1696900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1508300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1562800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2127,8 +2229,11 @@
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,29 +2273,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E48" s="3">
         <v>252000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>246000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>249400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>226400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>227400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2209,29 +2317,32 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2351000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2361000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2386000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2414700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2314200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2013000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,26 +2449,29 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E52" s="3">
         <v>79000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>35000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2367,14 +2487,17 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,29 +2537,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5148000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4894000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4434000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4380800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4053300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3803200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2455,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,29 +2619,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>826000</v>
+      </c>
+      <c r="E57" s="3">
         <v>859000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>608000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>613300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>564900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>532500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2530,8 +2661,11 @@
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2548,11 +2682,11 @@
         <v>15000</v>
       </c>
       <c r="H58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I58" s="3">
         <v>13000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2571,29 +2705,32 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E59" s="3">
         <v>192000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>216000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>214300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>164900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>148600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2612,29 +2749,32 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1079000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1066000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>839000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>842600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>744800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>694100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2653,29 +2793,32 @@
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1592000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1510000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1456000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1459000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1462000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2251500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +2837,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2703,20 +2849,20 @@
         <v>312000</v>
       </c>
       <c r="E62" s="3">
+        <v>312000</v>
+      </c>
+      <c r="F62" s="3">
         <v>308000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>320500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>298500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>158500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,29 +3013,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3598000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3458000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3109000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3157500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2981400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3104100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2899,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,26 +3251,29 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E72" s="3">
         <v>180000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>92000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>44400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3115,14 +3289,17 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,29 +3427,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1550000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1436000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1325000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1223300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1071900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>699100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3285,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44682</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44591</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44409</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44318</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44136</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44045</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43954</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43863</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43772</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E81" s="3">
         <v>86000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>64400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>26500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,29 +3628,30 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E83" s="3">
         <v>36000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,29 +3890,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-56600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-42500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3717,8 +3934,11 @@
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,29 +3954,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,29 +4084,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-176000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3898,8 +4128,11 @@
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,29 +4322,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E100" s="3">
         <v>48000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>81400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-188000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4120,8 +4366,11 @@
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,29 +4410,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-61700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-253600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-60700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4200,6 +4452,9 @@
         <v>8</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>CNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,220 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44682</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44591</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44409</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44318</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44136</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44045</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43954</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43863</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43772</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1818000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1861000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1598000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1246500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1404800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1297600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1055000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>831800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1012500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>955900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>842100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>733200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>952100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>924000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1360000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1177000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>919100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1034200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>972400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>798000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>627600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>768100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>725300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>642900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>552400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>726100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E10" s="3">
         <v>501000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>421000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>327400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>370600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>325200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>257000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>204200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>244400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>230600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>199200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>180800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>226000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,32 +987,35 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>300</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>300</v>
       </c>
       <c r="H14" s="3">
+        <v>300</v>
+      </c>
+      <c r="I14" s="3">
         <v>50400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1008,58 +1028,64 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E15" s="3">
         <v>34000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>34000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>33500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>32800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1584000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1624000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1418000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1138200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1257600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1248200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>986000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>799200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>947800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>896400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>813400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>712000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>898500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>870900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E18" s="3">
         <v>237000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>180000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>108300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>147200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>49400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>69000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>28700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1212,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,184 +1257,199 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E21" s="3">
         <v>274000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>216000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>146000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>184300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>86900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>106700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>65800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E22" s="3">
         <v>17000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>36800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>36000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>35300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>33100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>29200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E23" s="3">
         <v>220000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>167000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>95600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>134200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>33000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E24" s="3">
         <v>38000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E26" s="3">
         <v>182000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>137000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>78800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>109300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E27" s="3">
         <v>115000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>86000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>47700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>64400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1774,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1751,52 +1821,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E33" s="3">
         <v>115000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>86000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>47700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>64400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E35" s="3">
         <v>115000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>86000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>47700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>64400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44682</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44591</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44409</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44318</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44136</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44045</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43954</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43863</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43772</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2054,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1977,23 +2064,23 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>1000</v>
       </c>
       <c r="G41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>66600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>320200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2012,8 +2099,11 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,32 +2146,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1273000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1264000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1113000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>884000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>946100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>832900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>716100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2100,32 +2193,35 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1148000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1166000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1063000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>856000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>721200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>593200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>509200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2144,32 +2240,35 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E45" s="3">
         <v>31000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2188,32 +2287,35 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2455000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2461000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2202000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1767000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1696900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1508300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1562800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2232,8 +2334,11 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,32 +2381,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E48" s="3">
         <v>267000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>252000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>246000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>249400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>226400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>227400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2320,32 +2428,35 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2359000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2351000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2361000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2386000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2414700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2314200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2013000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,29 +2569,32 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E52" s="3">
         <v>69000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>79000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2490,14 +2610,17 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,32 +2663,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5190000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5148000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4894000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4434000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4380800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4053300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3803200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2584,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,32 +2750,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>701000</v>
+      </c>
+      <c r="E57" s="3">
         <v>826000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>859000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>608000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>613300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>564900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>532500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2664,8 +2795,11 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2685,11 +2819,11 @@
         <v>15000</v>
       </c>
       <c r="I58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J58" s="3">
         <v>13000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2708,32 +2842,35 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E59" s="3">
         <v>238000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>192000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>216000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>214300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>164900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>148600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2752,32 +2889,35 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>987000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1079000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1066000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>839000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>842600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>744800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>694100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2796,32 +2936,35 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1537000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1592000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1510000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1456000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1459000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1462000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2251500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2840,32 +2983,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>312000</v>
+        <v>314000</v>
       </c>
       <c r="E62" s="3">
         <v>312000</v>
       </c>
       <c r="F62" s="3">
+        <v>312000</v>
+      </c>
+      <c r="G62" s="3">
         <v>308000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>320500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>298500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>158500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,32 +3171,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3486000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3598000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3458000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3109000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3157500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2981400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3104100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3060,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,29 +3425,32 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E72" s="3">
         <v>298000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>180000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>92000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>44400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3292,14 +3466,17 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,32 +3613,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1550000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1436000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1325000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1223300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1071900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>699100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44682</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44591</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44409</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44318</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44136</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44045</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43954</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43863</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43772</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E81" s="3">
         <v>115000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>86000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>47700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>64400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3638,23 +3837,23 @@
         <v>37000</v>
       </c>
       <c r="E83" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F83" s="3">
         <v>36000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3673,8 +3872,11 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,32 +4107,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-56600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-42500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3937,8 +4154,11 @@
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,32 +4175,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3999,8 +4220,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,32 +4314,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-45000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-176000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4131,8 +4361,11 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,32 +4568,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E100" s="3">
         <v>67000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>48000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>81400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-188000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4369,8 +4615,11 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,32 +4662,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-61700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-253600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-60700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4455,6 +4707,9 @@
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>CNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,233 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E7" s="2">
         <v>44864</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44682</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44591</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44409</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44318</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44136</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44045</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43954</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43863</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43772</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1374000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1818000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1861000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1598000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1246500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1404800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1297600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1055000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>831800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1012500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>955900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>842100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>733200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>952100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>924000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1318000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1360000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1177000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>919100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1034200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>972400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>798000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>627600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>768100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>725300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>642900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>552400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>726100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E10" s="3">
         <v>500000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>501000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>421000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>327400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>370600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>325200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>257000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>204200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>244400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>230600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>199200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>180800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>226000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,8 +909,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -943,8 +957,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1007,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1001,24 +1021,24 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>300</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
       </c>
       <c r="I14" s="3">
+        <v>300</v>
+      </c>
+      <c r="J14" s="3">
         <v>50400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1031,61 +1051,67 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E15" s="3">
         <v>35000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>34000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>32800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>33100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1584000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1624000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1418000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1138200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1257600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1248200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>986000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>799200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>947800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>896400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>813400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>712000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>898500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>870900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E18" s="3">
         <v>234000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>237000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>180000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>108300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>147200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>49400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>69000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>59500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,8 +1246,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,196 +1294,211 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E21" s="3">
         <v>271000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>274000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>216000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>146000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>184300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>86900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>106700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>65800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="3">
         <v>16000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>36800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>36000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>33200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E23" s="3">
         <v>218000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>220000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>167000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>95600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>134200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="3">
         <v>40000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E26" s="3">
         <v>178000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>182000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>137000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>78800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>109300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E27" s="3">
         <v>111000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>115000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>86000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>47700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>64400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,8 +1844,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1824,55 +1894,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E33" s="3">
         <v>111000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>115000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>86000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>47700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>64400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E35" s="3">
         <v>111000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>115000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>86000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>47700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>64400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E38" s="2">
         <v>44864</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44682</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44591</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44409</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44318</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44136</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44045</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43954</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43863</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43772</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,35 +2141,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>177000</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>1000</v>
       </c>
       <c r="H41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>320200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2102,8 +2189,11 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2149,35 +2239,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>955000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1273000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1264000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1113000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>884000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>946100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>832900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>716100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2196,35 +2289,38 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1047000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1148000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1166000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1063000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>856000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>721200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>593200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>509200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2243,35 +2339,38 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E45" s="3">
         <v>34000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2290,35 +2389,38 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2211000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2455000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2461000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2202000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1767000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1696900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1508300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1562800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2337,8 +2439,11 @@
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2384,35 +2489,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E48" s="3">
         <v>268000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>267000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>252000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>246000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>249400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>226400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>227400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2431,35 +2539,38 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2330000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2359000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2351000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2361000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2386000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2414700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2314200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2013000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,32 +2689,35 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E52" s="3">
         <v>108000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>69000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>79000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2613,14 +2733,17 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,35 +2789,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4909000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5190000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5148000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4894000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4434000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4380800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4053300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3803200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2713,8 +2839,11 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,35 +2881,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E57" s="3">
         <v>701000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>826000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>859000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>608000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>613300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>564900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>532500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2798,8 +2929,11 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2822,11 +2956,11 @@
         <v>15000</v>
       </c>
       <c r="J58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2845,35 +2979,38 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E59" s="3">
         <v>271000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>238000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>192000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>216000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>214300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>164900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>148600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2892,35 +3029,38 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E60" s="3">
         <v>987000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1079000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1066000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>839000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>842600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>744800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>694100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2939,35 +3079,38 @@
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1444000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1537000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1592000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1510000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1456000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1459000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1462000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2251500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2986,35 +3129,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E62" s="3">
         <v>314000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>312000</v>
       </c>
       <c r="F62" s="3">
         <v>312000</v>
       </c>
       <c r="G62" s="3">
+        <v>312000</v>
+      </c>
+      <c r="H62" s="3">
         <v>308000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>320500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>298500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>158500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3033,8 +3179,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,35 +3329,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3162000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3486000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3598000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3458000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3109000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3157500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2981400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3104100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3221,8 +3379,11 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,32 +3599,35 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>458000</v>
+      </c>
+      <c r="E72" s="3">
         <v>404000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>298000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>180000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>92000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>44400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3469,14 +3643,17 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,35 +3799,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1747000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1704000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1550000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1436000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1325000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1223300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1071900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>699100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3663,8 +3849,11 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E80" s="2">
         <v>44864</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44682</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44591</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44409</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44318</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44136</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44045</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43954</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43863</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43772</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E81" s="3">
         <v>111000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>115000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>86000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>47700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>64400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,35 +4026,36 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="E83" s="3">
         <v>37000</v>
       </c>
       <c r="F83" s="3">
+        <v>37000</v>
+      </c>
+      <c r="G83" s="3">
         <v>36000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3875,8 +4074,11 @@
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,35 +4324,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E89" s="3">
         <v>154000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-56600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-42500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4157,8 +4374,11 @@
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,8 +4396,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4185,26 +4406,26 @@
         <v>-5000</v>
       </c>
       <c r="E91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-9000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4223,8 +4444,11 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,35 +4544,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-77000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-176000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4364,8 +4594,11 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,35 +4814,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-77000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>67000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>48000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>81400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-188000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4618,8 +4864,11 @@
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,35 +4914,38 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>177000</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-61700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-253600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-60700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4710,6 +4962,9 @@
         <v>8</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>CNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44955</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44864</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44682</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44591</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44409</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44318</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44136</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44045</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43954</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43863</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43772</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1574000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1374000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1818000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1861000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1598000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1246500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1404800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1297600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1055000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>831800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1012500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>955900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>842100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>733200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>952100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>924000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1001000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1318000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1360000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1177000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>919100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1034200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>972400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>798000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>627600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>768100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>725300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>642900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>552400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>726100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E10" s="3">
         <v>373000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>501000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>421000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>327400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>370600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>325200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>257000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>204200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>244400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>230600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>199200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>180800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>226000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -960,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,13 +1026,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1024,24 +1043,24 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>300</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
+        <v>300</v>
+      </c>
+      <c r="K14" s="3">
         <v>50400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1054,64 +1073,70 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E15" s="3">
         <v>36000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>35200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>32800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>33100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1250000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1584000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1624000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1418000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1138200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1257600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1248200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>986000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>799200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>947800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>896400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>813400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>712000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>898500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>870900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E18" s="3">
         <v>124000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>234000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>237000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>180000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>108300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>147200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>49400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>69000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1297,208 +1330,223 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E21" s="3">
         <v>162000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>271000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>274000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>216000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>146000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>184300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>86900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>65800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E22" s="3">
         <v>20000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>36800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>36000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>35000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E23" s="3">
         <v>104000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>218000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>220000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>167000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>95600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>134200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>20000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E26" s="3">
         <v>84000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>178000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>182000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>137000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>78800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>109300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E27" s="3">
         <v>54000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>111000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>115000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>86000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>47700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>64400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1897,58 +1966,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E33" s="3">
         <v>54000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>111000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>115000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>86000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>47700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>64400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E35" s="3">
         <v>54000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>111000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>115000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>86000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>47700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>64400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44955</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44864</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44682</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44591</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44409</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44318</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44136</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44045</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43954</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43863</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43772</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,38 +2227,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>177000</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>1000</v>
       </c>
       <c r="I41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>66600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>320200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2192,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2242,38 +2331,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1098000</v>
+      </c>
+      <c r="E43" s="3">
         <v>955000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1273000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1264000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1113000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>884000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>946100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>832900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>716100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2292,38 +2384,41 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1030000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1047000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1148000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1166000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1063000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>856000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>721200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>593200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>509200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2342,38 +2437,41 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E45" s="3">
         <v>32000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2392,38 +2490,41 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2166000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2211000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2455000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2461000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2202000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1767000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1696900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1508300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1562800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2442,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2492,38 +2596,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E48" s="3">
         <v>280000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>268000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>267000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>252000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>246000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>249400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>226400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>227400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2542,38 +2649,41 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2334000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2330000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2359000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2351000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2361000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2386000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2414700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2314200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2013000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2592,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,35 +2808,38 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E52" s="3">
         <v>88000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>108000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>69000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>79000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>35000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2736,14 +2855,17 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,38 +2914,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4929000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4909000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5190000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5148000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4894000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4434000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4380800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4053300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3803200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2842,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,38 +3011,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>581000</v>
+      </c>
+      <c r="E57" s="3">
         <v>479000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>701000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>826000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>859000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>608000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>613300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>564900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>532500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2932,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2959,11 +3092,11 @@
         <v>15000</v>
       </c>
       <c r="K58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L58" s="3">
         <v>13000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2982,38 +3115,41 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E59" s="3">
         <v>232000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>271000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>238000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>192000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>216000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>214300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>164900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>148600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,38 +3168,41 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>798000</v>
+      </c>
+      <c r="E60" s="3">
         <v>726000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>987000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1079000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1066000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>839000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>842600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>744800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>694100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3082,38 +3221,41 @@
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1571000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1444000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1537000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1592000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1510000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1456000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1459000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1462000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2251500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3132,38 +3274,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E62" s="3">
         <v>329000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>314000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>312000</v>
       </c>
       <c r="G62" s="3">
         <v>312000</v>
       </c>
       <c r="H62" s="3">
+        <v>312000</v>
+      </c>
+      <c r="I62" s="3">
         <v>308000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>320500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>298500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>158500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3182,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,38 +3486,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3301000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3162000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3486000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3598000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3458000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3109000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3157500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2981400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3104100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3382,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,35 +3772,38 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E72" s="3">
         <v>458000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>404000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>298000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>180000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>92000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>44400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3646,14 +3819,17 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,38 +3984,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1747000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1704000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1550000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1436000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1325000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1223300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1071900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>699100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3852,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44955</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44864</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44682</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44591</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44409</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44318</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44136</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44045</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43954</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43863</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43772</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E81" s="3">
         <v>54000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>111000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>115000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>86000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>47700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>64400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,38 +4224,39 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E83" s="3">
         <v>38000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>37000</v>
       </c>
       <c r="F83" s="3">
         <v>37000</v>
       </c>
       <c r="G83" s="3">
+        <v>37000</v>
+      </c>
+      <c r="H83" s="3">
         <v>36000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4077,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,38 +4540,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E89" s="3">
         <v>307000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>154000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-37000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-56600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-42500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4377,8 +4593,11 @@
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,38 +4616,39 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5000</v>
+        <v>-10000</v>
       </c>
       <c r="E91" s="3">
         <v>-5000</v>
       </c>
       <c r="F91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-9000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4447,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,38 +4773,41 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-77000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-176000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4597,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,38 +5059,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-111000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-77000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>67000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>48000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>81400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-188000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4867,8 +5112,11 @@
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4917,38 +5165,41 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="E102" s="3">
         <v>177000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-61700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-253600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-60700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4965,6 +5216,9 @@
         <v>8</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>CNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44955</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44864</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44682</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44591</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44409</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44318</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44136</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44045</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43954</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43863</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43772</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1574000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1374000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1818000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1861000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1598000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1246500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1404800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1297600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1055000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>831800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1012500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>955900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>842100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>733200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>952100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>924000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1360000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1135000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1001000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1318000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1360000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1177000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>919100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1034200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>972400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>798000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>627600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>768100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>725300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>642900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>552400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>726100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E10" s="3">
         <v>439000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>373000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>501000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>421000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>327400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>370600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>325200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>257000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>204200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>244400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>230600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>199200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>180800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>226000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,16 +1046,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1046,24 +1066,24 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>300</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>300</v>
       </c>
       <c r="K14" s="3">
+        <v>300</v>
+      </c>
+      <c r="L14" s="3">
         <v>50400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1076,67 +1096,73 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E15" s="3">
         <v>35000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>36000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>35400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>35200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>34300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>33500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>32800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>33100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1635000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1393000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1250000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1584000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1624000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1418000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1138200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1257600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1248200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>986000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>799200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>947800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>896400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>813400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>712000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>898500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>870900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E18" s="3">
         <v>181000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>124000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>234000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>237000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>180000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>108300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>147200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>49400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>69000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>64700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>59500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>28700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1333,220 +1367,235 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E21" s="3">
         <v>218000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>162000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>271000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>274000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>216000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>146000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>184300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>86900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>106700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>65800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E22" s="3">
         <v>17000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>36800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>36000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>35600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>35000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>33100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E23" s="3">
         <v>164000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>104000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>218000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>220000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>167000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>95600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>134200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E24" s="3">
         <v>31000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E26" s="3">
         <v>133000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>84000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>178000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>182000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>137000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>78800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>109300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E27" s="3">
         <v>86000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>54000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>111000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>115000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>86000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>47700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>64400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1969,61 +2039,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E33" s="3">
         <v>86000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>54000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>111000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>115000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>86000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>47700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>64400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E35" s="3">
         <v>86000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>54000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>111000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>115000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>86000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>47700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>64400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44955</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44864</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44682</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44591</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44409</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44318</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44136</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44045</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43954</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43863</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43772</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,41 +2314,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>177000</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>1000</v>
       </c>
       <c r="J41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>320200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2281,8 +2368,11 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,41 +2424,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1098000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>955000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1273000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1264000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1113000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>884000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>946100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>832900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>716100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2387,41 +2480,44 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1030000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1047000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1148000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1166000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1063000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>856000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>721200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>593200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>509200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2440,41 +2536,44 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E45" s="3">
         <v>37000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2493,41 +2592,44 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2182000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2166000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2211000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2455000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2461000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2202000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1767000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1696900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1508300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1562800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2546,8 +2648,11 @@
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,41 +2704,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>314000</v>
+      </c>
+      <c r="E48" s="3">
         <v>299000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>280000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>268000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>267000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>252000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>246000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>249400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>226400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>227400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2652,41 +2760,44 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2363000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2334000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2330000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2359000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2351000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2361000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2386000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2414700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2314200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2013000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,38 +2928,41 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E52" s="3">
         <v>130000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>88000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>108000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>69000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>79000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2858,14 +2978,17 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,41 +3040,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5039000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4929000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4909000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5190000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5148000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4894000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4434000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4380800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4053300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3803200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2970,8 +3096,11 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,41 +3142,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E57" s="3">
         <v>581000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>479000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>701000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>826000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>859000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>608000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>613300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>564900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>532500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3065,8 +3196,11 @@
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3095,11 +3229,11 @@
         <v>15000</v>
       </c>
       <c r="L58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M58" s="3">
         <v>13000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3118,41 +3252,44 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E59" s="3">
         <v>202000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>232000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>271000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>238000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>192000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>216000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>214300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>164900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>148600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3171,41 +3308,44 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>842000</v>
+      </c>
+      <c r="E60" s="3">
         <v>798000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>726000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>987000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1079000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1066000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>839000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>842600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>744800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>694100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3224,41 +3364,44 @@
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1571000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1444000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1537000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1592000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1510000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1456000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1459000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1462000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2251500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3277,41 +3420,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E62" s="3">
         <v>368000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>329000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>314000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>312000</v>
       </c>
       <c r="H62" s="3">
         <v>312000</v>
       </c>
       <c r="I62" s="3">
+        <v>312000</v>
+      </c>
+      <c r="J62" s="3">
         <v>308000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>320500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>298500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>158500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,41 +3644,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3344000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3301000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3162000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3486000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3598000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3458000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3109000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3157500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2981400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3104100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3542,8 +3700,11 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,38 +3946,41 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E72" s="3">
         <v>403000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>458000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>404000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>298000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>180000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>92000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>44400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3822,14 +3996,17 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,41 +4170,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1695000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1628000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1747000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1704000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1550000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1436000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1325000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1223300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1071900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>699100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4040,8 +4226,11 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44955</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44864</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44682</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44591</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44409</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44318</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44136</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44045</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43954</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43863</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43772</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43681</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E81" s="3">
         <v>86000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>54000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>111000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>115000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>86000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>47700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>64400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,41 +4423,42 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E83" s="3">
         <v>37000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>38000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>37000</v>
       </c>
       <c r="G83" s="3">
         <v>37000</v>
       </c>
       <c r="H83" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I83" s="3">
         <v>36000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,41 +4757,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E89" s="3">
         <v>120000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>307000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>154000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-37000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-56600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-42500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4596,8 +4813,11 @@
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,41 +4837,42 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-5000</v>
       </c>
       <c r="F91" s="3">
         <v>-5000</v>
       </c>
       <c r="G91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,41 +5003,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-74000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-77000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-45000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-176000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4829,8 +5059,11 @@
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,41 +5305,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-222000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-111000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-77000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>67000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>48000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-25100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>81400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-188000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5115,8 +5361,11 @@
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,41 +5417,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-176000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>177000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-61700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-253600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5219,6 +5471,9 @@
         <v>8</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
